--- a/data/financial_statements/soci/WAB.xlsx
+++ b/data/financial_statements/soci/WAB.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,129 +604,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2081000000</v>
@@ -736,8 +847,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0912</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1501000000</v>
+        <v>1433000000</v>
       </c>
       <c r="C4">
-        <v>1473000000</v>
+        <v>1403000000</v>
       </c>
       <c r="D4">
-        <v>1400000000</v>
+        <v>1332000000</v>
       </c>
       <c r="E4">
-        <v>1488000000</v>
+        <v>1421000000</v>
       </c>
       <c r="F4">
-        <v>1354000000</v>
+        <v>1304000000</v>
       </c>
       <c r="G4">
         <v>1432000000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>580000000</v>
+        <v>648000000</v>
       </c>
       <c r="C5">
-        <v>575000000</v>
+        <v>645000000</v>
       </c>
       <c r="D5">
-        <v>527000000</v>
+        <v>595000000</v>
       </c>
       <c r="E5">
-        <v>585000000</v>
+        <v>652000000</v>
       </c>
       <c r="F5">
-        <v>553000000</v>
+        <v>603000000</v>
       </c>
       <c r="G5">
         <v>580000000</v>
@@ -1102,8 +1213,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>54000000</v>
@@ -1143,8 +1254,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>260000000</v>
@@ -1159,7 +1270,7 @@
         <v>264000000</v>
       </c>
       <c r="F7">
-        <v>257000000</v>
+        <v>269000000</v>
       </c>
       <c r="G7">
         <v>263000000</v>
@@ -1265,8 +1376,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>261000000</v>
@@ -1387,8 +1498,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>48000000</v>
@@ -1428,8 +1539,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>48000000</v>
@@ -1550,23 +1661,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>7000000</v>
+        <v>-44000000</v>
       </c>
       <c r="C11">
-        <v>4000000</v>
+        <v>-37000000</v>
       </c>
       <c r="D11">
-        <v>5000000</v>
+        <v>-39000000</v>
       </c>
       <c r="E11">
-        <v>5000000</v>
+        <v>-29000000</v>
       </c>
       <c r="F11">
-        <v>32000000</v>
+        <v>-42000000</v>
       </c>
       <c r="G11">
         <v>-34000000</v>
@@ -1672,8 +1783,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>217000000</v>
@@ -1794,8 +1905,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>54000000</v>
@@ -1810,7 +1921,7 @@
         <v>42000000</v>
       </c>
       <c r="F13">
-        <v>44000000</v>
+        <v>43000000</v>
       </c>
       <c r="G13">
         <v>44000000</v>
@@ -1916,8 +2027,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>163000000</v>
@@ -2038,8 +2149,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2067,8 +2178,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>3000000</v>
@@ -2147,8 +2258,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>160000000</v>
@@ -2160,10 +2271,10 @@
         <v>149000000</v>
       </c>
       <c r="E17">
-        <v>189000000</v>
+        <v>190000000</v>
       </c>
       <c r="F17">
-        <v>130000000</v>
+        <v>131000000</v>
       </c>
       <c r="G17">
         <v>125000000</v>
@@ -2269,8 +2380,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.88</v>
@@ -2279,10 +2390,10 @@
         <v>0.91</v>
       </c>
       <c r="D18">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E18">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F18">
         <v>0.6899999999999999</v>
@@ -2391,8 +2502,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.88</v>
@@ -2513,23 +2624,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>181000000</v>
+        <v>181300000</v>
       </c>
       <c r="C20">
-        <v>182000000</v>
+        <v>181900000</v>
       </c>
       <c r="D20">
-        <v>185000000</v>
+        <v>184500000</v>
       </c>
       <c r="E20">
-        <v>186000000</v>
+        <v>187700000</v>
       </c>
       <c r="F20">
-        <v>188000000</v>
+        <v>187600000</v>
       </c>
       <c r="G20">
         <v>188600000</v>
@@ -2635,20 +2746,20 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>182000000</v>
+        <v>181900000</v>
       </c>
       <c r="C21">
-        <v>182000000</v>
+        <v>182400000</v>
       </c>
       <c r="D21">
         <v>185000000</v>
       </c>
       <c r="E21">
-        <v>187000000</v>
+        <v>188100000</v>
       </c>
       <c r="F21">
         <v>188000000</v>
@@ -2757,23 +2868,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.2787</v>
+        <v>0.3114</v>
       </c>
       <c r="C22">
-        <v>0.2808</v>
+        <v>0.3149</v>
       </c>
       <c r="D22">
-        <v>0.2735</v>
+        <v>0.3088</v>
       </c>
       <c r="E22">
-        <v>0.2822</v>
+        <v>0.3145</v>
       </c>
       <c r="F22">
-        <v>0.29</v>
+        <v>0.3162</v>
       </c>
       <c r="G22">
         <v>0.2883</v>
@@ -2879,8 +2990,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1254</v>
@@ -3001,8 +3112,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.1043</v>
@@ -3123,8 +3234,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.0769</v>
@@ -3136,10 +3247,10 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="E25">
-        <v>0.0912</v>
+        <v>0.0917</v>
       </c>
       <c r="F25">
-        <v>0.0682</v>
+        <v>0.0687</v>
       </c>
       <c r="G25">
         <v>0.0621</v>
@@ -3245,23 +3356,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>389000000</v>
+        <v>366000000</v>
       </c>
       <c r="C26">
-        <v>386000000</v>
+        <v>369000000</v>
       </c>
       <c r="D26">
-        <v>368000000</v>
+        <v>349000000</v>
       </c>
       <c r="E26">
-        <v>384000000</v>
+        <v>373000000</v>
       </c>
       <c r="F26">
-        <v>374000000</v>
+        <v>323000000</v>
       </c>
       <c r="G26">
         <v>322000000</v>
@@ -3367,8 +3478,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>261000000</v>
@@ -3489,8 +3600,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>163000000</v>
@@ -3611,8 +3722,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>163000000</v>
@@ -3624,7 +3735,7 @@
         <v>150000000</v>
       </c>
       <c r="E29">
-        <v>192000000</v>
+        <v>193000000</v>
       </c>
       <c r="F29">
         <v>132000000</v>
@@ -3733,8 +3844,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.8991</v>
@@ -3855,8 +3966,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.8961</v>
@@ -3977,8 +4088,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.8991</v>
@@ -4099,8 +4210,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.8961</v>
@@ -4221,8 +4332,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>181900000</v>
@@ -4343,23 +4454,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.1869</v>
+        <v>0.1759</v>
       </c>
       <c r="C35">
-        <v>0.1885</v>
+        <v>0.1802</v>
       </c>
       <c r="D35">
-        <v>0.191</v>
+        <v>0.1811</v>
       </c>
       <c r="E35">
-        <v>0.1852</v>
+        <v>0.1799</v>
       </c>
       <c r="F35">
-        <v>0.1961</v>
+        <v>0.1694</v>
       </c>
       <c r="G35">
         <v>0.16</v>
@@ -4465,8 +4576,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.098</v>
